--- a/DbLayouts/L6-共同作業/CdCity.xlsx
+++ b/DbLayouts/L6-共同作業/CdCity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC80112-8276-4B0D-9E1F-95C28E1A945A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4A036F-E0DF-4E9C-9C25-0286E3024478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17388" windowHeight="8448" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -275,8 +275,20 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3:基隆市
-5:台北市
+    <t>JcicCityCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聯徵用縣市代碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刪除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03:基隆市
+05:台北市
 10:新北市
 15:桃園市
 17:新竹市
@@ -295,18 +307,6 @@
 90:花蓮縣
 85:台東縣
 97:澎湖縣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JcicCityCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>聯徵用縣市代碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刪除</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -620,14 +620,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -971,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -987,10 +987,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="19" t="s">
         <v>35</v>
       </c>
@@ -1015,10 +1015,10 @@
       <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="19" t="s">
         <v>33</v>
       </c>
@@ -1028,10 +1028,10 @@
       <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="27"/>
       <c r="D4" s="26"/>
       <c r="E4" s="25"/>
@@ -1039,10 +1039,10 @@
       <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="27" t="s">
         <v>29</v>
       </c>
@@ -1052,10 +1052,10 @@
       <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="27" t="s">
         <v>34</v>
       </c>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="32" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1203,8 +1203,8 @@
       <c r="F13" s="29">
         <v>4</v>
       </c>
-      <c r="G13" s="35" t="s">
-        <v>56</v>
+      <c r="G13" s="33" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="22.2" customHeight="1">
@@ -1226,8 +1226,8 @@
       <c r="F14" s="29">
         <v>4</v>
       </c>
-      <c r="G14" s="35" t="s">
-        <v>56</v>
+      <c r="G14" s="33" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1249,8 +1249,8 @@
       <c r="F15" s="29">
         <v>4</v>
       </c>
-      <c r="G15" s="35" t="s">
-        <v>56</v>
+      <c r="G15" s="33" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1258,18 +1258,18 @@
         <v>10</v>
       </c>
       <c r="B16" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="29" t="s">
         <v>54</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>55</v>
       </c>
       <c r="D16" s="29" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
-      <c r="G16" s="35" t="s">
-        <v>56</v>
+      <c r="G16" s="33" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:7">

--- a/DbLayouts/L6-共同作業/CdCity.xlsx
+++ b/DbLayouts/L6-共同作業/CdCity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4A036F-E0DF-4E9C-9C25-0286E3024478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0706E5C5-9F5E-4B07-A17D-5D2B80892523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17388" windowHeight="8448" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -307,6 +307,54 @@
 90:花蓮縣
 85:台東縣
 97:澎湖縣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccTelArea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccTelNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccTelExt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LegalArea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LegalNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LegalExt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>催收人員電話-區碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>催收人員電話</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>催收人員電話-分機</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法務人員電話-區碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法務人員電話</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法務人員電話-分機</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -969,17 +1017,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="5.21875" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.44140625" style="14" bestFit="1" customWidth="1"/>
@@ -1172,62 +1220,50 @@
         <v>5</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="22.2" customHeight="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="29">
         <v>6</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E13" s="29">
-        <v>6</v>
-      </c>
-      <c r="F13" s="29">
-        <v>4</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="22.2" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="29">
         <v>7</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E14" s="29">
-        <v>6</v>
-      </c>
-      <c r="F14" s="29">
-        <v>4</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1235,195 +1271,309 @@
         <v>8</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E15" s="29">
         <v>6</v>
       </c>
-      <c r="F15" s="29">
-        <v>4</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D16" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="33" t="s">
-        <v>55</v>
+      <c r="E16" s="29">
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="29">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="D18" s="29" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="22.2" customHeight="1">
+      <c r="A19" s="29">
+        <v>12</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="29">
         <v>6</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="29">
+      <c r="F19" s="29">
+        <v>4</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="22.2" customHeight="1">
+      <c r="A20" s="29">
         <v>13</v>
       </c>
-      <c r="B19" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="29">
-        <v>14</v>
-      </c>
       <c r="B20" s="29" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E20" s="29">
         <v>6</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29" t="s">
+      <c r="F20" s="29">
+        <v>4</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="29">
+        <v>14</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="29">
+        <v>6</v>
+      </c>
+      <c r="F21" s="29">
+        <v>4</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="29">
+        <v>15</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="29">
+        <v>16</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="7"/>
-    </row>
     <row r="24" spans="1:7">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="8"/>
+      <c r="A24" s="29">
+        <v>17</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="29">
+        <v>6</v>
+      </c>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="8"/>
+      <c r="A25" s="29">
+        <v>18</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="8"/>
+      <c r="A26" s="29">
+        <v>19</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="29">
+        <v>6</v>
+      </c>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="B27" s="7"/>
-      <c r="C27" s="9"/>
-      <c r="E27" s="10"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="5"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="17"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="B28" s="7"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="10"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="E28" s="5"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="15"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="B29" s="7"/>
-      <c r="C29" s="9"/>
-      <c r="E29" s="10"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="B30" s="7"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="10"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="7"/>
+      <c r="C33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="17"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="7"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="15"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="7"/>
+      <c r="C35" s="9"/>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="7"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/DbLayouts/L6-共同作業/CdCity.xlsx
+++ b/DbLayouts/L6-共同作業/CdCity.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0706E5C5-9F5E-4B07-A17D-5D2B80892523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -280,10 +279,6 @@
   </si>
   <si>
     <t>聯徵用縣市代碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刪除</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -357,11 +352,15 @@
     <t>法務人員電話-分機</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>刪除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="17">
     <font>
       <sz val="12"/>
@@ -680,8 +679,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般_CopyBook" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -772,23 +771,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -824,23 +806,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1016,11 +981,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1153,7 +1118,7 @@
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1220,10 +1185,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>9</v>
@@ -1237,10 +1202,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>9</v>
@@ -1254,10 +1219,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>9</v>
@@ -1288,10 +1253,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="29" t="s">
         <v>9</v>
@@ -1305,10 +1270,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="29" t="s">
         <v>9</v>
@@ -1322,10 +1287,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" s="29" t="s">
         <v>9</v>
@@ -1353,9 +1318,7 @@
       <c r="F19" s="29">
         <v>4</v>
       </c>
-      <c r="G19" s="33" t="s">
-        <v>55</v>
-      </c>
+      <c r="G19" s="33"/>
     </row>
     <row r="20" spans="1:7" ht="22.2" customHeight="1">
       <c r="A20" s="29">
@@ -1376,9 +1339,7 @@
       <c r="F20" s="29">
         <v>4</v>
       </c>
-      <c r="G20" s="33" t="s">
-        <v>55</v>
-      </c>
+      <c r="G20" s="33"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="29">
@@ -1399,9 +1360,7 @@
       <c r="F21" s="29">
         <v>4</v>
       </c>
-      <c r="G21" s="33" t="s">
-        <v>55</v>
-      </c>
+      <c r="G21" s="33"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="29">
@@ -1419,7 +1378,7 @@
       <c r="E22" s="29"/>
       <c r="F22" s="29"/>
       <c r="G22" s="33" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1590,7 +1549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
